--- a/biology/Zoologie/Ceutorhynchinae/Ceutorhynchinae.xlsx
+++ b/biology/Zoologie/Ceutorhynchinae/Ceutorhynchinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Ceutorhynchinae forment une sous-famille d'insectes de l'ordre des coléoptères[1], de la famille des Curculionidae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Ceutorhynchinae forment une sous-famille d'insectes de l'ordre des coléoptères, de la famille des Curculionidae.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La sous-famille des Ceutorhynchinae est décrite par le naturaliste bavarois Johannes von Nepomuk Franz Xaver Gistel (1809-1873) en 1848.
 </t>
@@ -542,7 +556,9 @@
           <t>Liste des tribus</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Groupe de tribus "Ceutorhynchinae": 
 Ceutorhynchini - 
@@ -582,7 +598,9 @@
           <t>Liste des genres rencontrés en Europe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Amalorrhynchus Reitter 1913
@@ -673,9 +691,11 @@
           <t>Liste des sous-taxons</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (30 août 2014)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (30 août 2014) :
 genre Amalorrhynchus
 Amalorrhynchus melanarius
 genre Cardipennis
@@ -773,7 +793,7 @@
 Wagnerinus harmandi
 genre Zacladus
 Zacladus geranii
-Selon Paleobiology Database                   (30 août 2014)[3] :
+Selon Paleobiology Database                   (30 août 2014) :
 Ceutorhynchini
 Phytobiini</t>
         </is>
